--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_16-16.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_16-16.xlsx
@@ -47,45 +47,42 @@
     <t>3:1</t>
   </si>
   <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+    <t>B.B.C. ORAL SPRAY 25 ML</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
+    <t>BEEGU NOSE BRAND SOOTHING &amp; MOISTURIZING SPRAY 30ML</t>
+  </si>
+  <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>CIPROFAR 500MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>B.B.C. ORAL SPRAY 25 ML</t>
-  </si>
-  <si>
-    <t>BEEGU NOSE BRAND SOOTHING &amp; MOISTURIZING SPRAY 30ML</t>
-  </si>
-  <si>
-    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
-  </si>
-  <si>
-    <t>BRUFEN 600MG 30 TAB</t>
-  </si>
-  <si>
-    <t>CIPROFAR 500MG 10 F.C.TAB</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -158,103 +155,97 @@
     <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
   </si>
   <si>
-    <t>PANADOL EXTRA 24 F.C. TAB</t>
+    <t>PREDSOL FORTE 15MG/5ML SYRUP 60ML</t>
+  </si>
+  <si>
+    <t>SONIDAIR 1MG/2ML 30SUSP.AMP.FOR INH.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>SUPOLACK HAIR SHAMPOO 200 ML</t>
+  </si>
+  <si>
+    <t>TELFAST 180MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>TOP-4 CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>URIPAN 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>WELLMETAZONE 0.1% CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>WINZOXIB 90MG 20 TAB</t>
+  </si>
+  <si>
+    <t>XILONE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>بيبي جوي رقم 5</t>
+  </si>
+  <si>
+    <t>جنتيانا نقط</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شامبو نونو 200ملل </t>
+  </si>
+  <si>
+    <t xml:space="preserve">عضاضه الجو </t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>فرشه شعر الجو</t>
+  </si>
+  <si>
+    <t>كريم فاتيكا 125 مل</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>ليفه اطفال اشكال</t>
   </si>
   <si>
     <t>5:0</t>
-  </si>
-  <si>
-    <t>PREDSOL FORTE 15MG/5ML SYRUP 60ML</t>
-  </si>
-  <si>
-    <t>SONIDAIR 1MG/2ML 30SUSP.AMP.FOR INH.</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>SULBIN 750MG VIAL</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>SUPOLACK HAIR SHAMPOO 200 ML</t>
-  </si>
-  <si>
-    <t>TELFAST 180MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>TOP-4 CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>URIPAN 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>URSOFALK 250MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>WELLMETAZONE 0.1% CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>WINZOXIB 90MG 20 TAB</t>
-  </si>
-  <si>
-    <t>XILONE 5MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>بيبي جوي رقم 5</t>
-  </si>
-  <si>
-    <t>جنتيانا نقط</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>-1:0</t>
-  </si>
-  <si>
-    <t>سيتي بيبي رقم 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شامبو نونو 200ملل </t>
-  </si>
-  <si>
-    <t xml:space="preserve">عضاضه الجو </t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>فرشه شعر الجو</t>
-  </si>
-  <si>
-    <t>كريم فاتيكا 125 مل</t>
-  </si>
-  <si>
-    <t>كريم فيرند لافلي الصغير</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>كريم فيرند لافلي الكبير</t>
-  </si>
-  <si>
-    <t>ليفه اطفال اشكال</t>
   </si>
   <si>
     <t>مناديل سولو سحب</t>
@@ -911,11 +902,11 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -923,7 +914,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -931,13 +922,13 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
@@ -949,7 +940,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -957,13 +948,13 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
@@ -975,7 +966,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -983,17 +974,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1001,7 +992,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1009,17 +1000,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1027,7 +1018,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1035,17 +1026,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>138</v>
+        <v>47.039999999999999</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1053,7 +1044,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1061,17 +1052,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>47.039999999999999</v>
+        <v>35</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1079,7 +1070,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1087,17 +1078,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1105,7 +1096,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1113,13 +1104,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -1139,13 +1130,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1157,7 +1148,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1165,13 +1156,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1191,17 +1182,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1217,17 +1208,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1243,13 +1234,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1269,17 +1260,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1295,13 +1286,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1321,13 +1312,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1347,17 +1338,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1373,17 +1364,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1399,17 +1390,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1417,7 +1408,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1425,17 +1416,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1451,17 +1442,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1477,17 +1468,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1503,13 +1494,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1529,13 +1520,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1555,13 +1546,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1581,13 +1572,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1607,17 +1598,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1633,17 +1624,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1665,11 +1656,11 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>29</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1685,17 +1676,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1717,11 +1708,11 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>20.399999999999999</v>
+        <v>35</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1737,17 +1728,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>23</v>
+        <v>149.5</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1763,17 +1754,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1781,7 +1772,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1795,7 +1786,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>149.5</v>
+        <v>19</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1807,7 +1798,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1815,17 +1806,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1833,7 +1824,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1847,7 +1838,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1859,7 +1850,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1867,17 +1858,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1885,7 +1876,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1899,7 +1890,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1911,7 +1902,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1919,17 +1910,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>26</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1937,7 +1928,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1945,13 +1936,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -1971,17 +1962,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>66.640000000000001</v>
+        <v>-375</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -1997,17 +1988,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2015,7 +2006,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2023,13 +2014,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>-375</v>
+        <v>40</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2041,7 +2032,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2049,17 +2040,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2075,13 +2066,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>40</v>
+        <v>188.09999999999999</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2101,13 +2092,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2119,7 +2110,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2127,13 +2118,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>188.09999999999999</v>
+        <v>15</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2153,13 +2144,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2179,13 +2170,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2197,7 +2188,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2205,13 +2196,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2231,13 +2222,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2249,7 +2240,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2257,129 +2248,51 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="59" ht="24.75" customHeight="1">
-      <c r="A59" s="6">
-        <v>56</v>
-      </c>
-      <c t="s" r="B59" s="7">
-        <v>80</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c t="s" r="H59" s="8">
-        <v>40</v>
-      </c>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="9">
-        <v>35</v>
-      </c>
-      <c r="M59" s="9"/>
-      <c t="s" r="N59" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" ht="25.5" customHeight="1">
-      <c r="A60" s="6">
-        <v>57</v>
-      </c>
-      <c t="s" r="B60" s="7">
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="K59" s="10">
+        <v>2482.6799999999998</v>
+      </c>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="11">
         <v>81</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c t="s" r="H60" s="8">
-        <v>50</v>
-      </c>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="9">
-        <v>25</v>
-      </c>
-      <c r="M60" s="9"/>
-      <c t="s" r="N60" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" ht="24.75" customHeight="1">
-      <c r="A61" s="6">
-        <v>58</v>
-      </c>
-      <c t="s" r="B61" s="7">
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c t="s" r="F60" s="12">
         <v>82</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c t="s" r="H61" s="8">
+      <c r="G60" s="12"/>
+      <c r="H60" s="13"/>
+      <c t="s" r="I60" s="14">
         <v>83</v>
       </c>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="9">
-        <v>45</v>
-      </c>
-      <c r="M61" s="9"/>
-      <c t="s" r="N61" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" ht="26.25" customHeight="1">
-      <c r="K62" s="10">
-        <v>2651.6799999999998</v>
-      </c>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="11">
-        <v>84</v>
-      </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c t="s" r="F63" s="12">
-        <v>85</v>
-      </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="13"/>
-      <c t="s" r="I63" s="14">
-        <v>86</v>
-      </c>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="185">
+  <mergeCells count="176">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2552,19 +2465,10 @@
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:N60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
